--- a/klq_allDealRecords.xlsx
+++ b/klq_allDealRecords.xlsx
@@ -12172,13 +12172,13 @@
         <v>5200.07</v>
       </c>
       <c r="J152">
-        <v>4000</v>
+        <v>3995.21</v>
       </c>
       <c r="K152">
         <v>4.79</v>
       </c>
       <c r="L152">
-        <v>4004.79</v>
+        <v>4000</v>
       </c>
       <c r="M152" t="s">
         <v>456</v>
@@ -17828,13 +17828,13 @@
         <v>5718.06</v>
       </c>
       <c r="J253">
-        <v>4000</v>
+        <v>3995.21</v>
       </c>
       <c r="K253">
         <v>4.79</v>
       </c>
       <c r="L253">
-        <v>4004.79</v>
+        <v>4000</v>
       </c>
       <c r="M253" t="s">
         <v>456</v>
@@ -17884,13 +17884,13 @@
         <v>5813.75</v>
       </c>
       <c r="J254">
-        <v>4000</v>
+        <v>3995.21</v>
       </c>
       <c r="K254">
         <v>4.79</v>
       </c>
       <c r="L254">
-        <v>4004.79</v>
+        <v>4000</v>
       </c>
       <c r="M254" t="s">
         <v>456</v>
